--- a/outputs/department_timetables/ECE_3.xlsx
+++ b/outputs/department_timetables/ECE_3.xlsx
@@ -728,7 +728,7 @@
       </c>
       <c r="R3" s="3" t="inlineStr">
         <is>
-          <t>New | Semiconductor Devices | Dr. Pankaj Kumar | C204</t>
+          <t>New | Semiconductor Devices | Dr. Pankaj Kumar | C203</t>
         </is>
       </c>
       <c r="X3" t="inlineStr"/>
